--- a/data/qiymətləndirmə.xlsx
+++ b/data/qiymətləndirmə.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasim\Desktop\qiymətləndirmə\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murad\OneDrive\Masaüstü\nip_kpi1-main\nip_kpi1-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF96475A-DB3D-4786-96AF-61BC8CB31A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640D6291-9FBC-46FE-9649-3A169F2A11AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,6 +474,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,9 +503,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
@@ -800,31 +800,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -901,12 +901,12 @@
       <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="16">
         <f>SUM(E5:E7)</f>
         <v>2</v>
       </c>
